--- a/biology/Botanique/Diaphananthe_ceriflora/Diaphananthe_ceriflora.xlsx
+++ b/biology/Botanique/Diaphananthe_ceriflora/Diaphananthe_ceriflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diaphanante ceriflora J.B.Petersen est une espèce de plantes d'Afrique tropicale, de la famille des orchidées et du genre Diaphananthe.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diaphanante ceriflora est une plante qui possède une tige de 4 cm de long ainsi que 6 feuilles articulée à la base de la gaine de cette tige. Les feuilles mesurent entre 31 et 35 cm de long et environ 9 cm de large. Les inflorescences de cette plante sont pendantes et mesures 22 cm de long. La partie fleurie mesure 11 cm de long et porte en moyenne 21 fleurs de couleur jaunâtre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diaphanante ceriflora est une plante qui possède une tige de 4 cm de long ainsi que 6 feuilles articulée à la base de la gaine de cette tige. Les feuilles mesurent entre 31 et 35 cm de long et environ 9 cm de large. Les inflorescences de cette plante sont pendantes et mesures 22 cm de long. La partie fleurie mesure 11 cm de long et porte en moyenne 21 fleurs de couleur jaunâtre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diaphanante ceriflora est une plante épiphyte qui pousse sur des lianes se trouvant au-dessus d'un ruisseau. On la trouve en Afrique de l'Ouest dans la région qui s'étend du Cameroun au Gabon[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diaphanante ceriflora est une plante épiphyte qui pousse sur des lianes se trouvant au-dessus d'un ruisseau. On la trouve en Afrique de l'Ouest dans la région qui s'étend du Cameroun au Gabon.
 </t>
         </is>
       </c>
